--- a/Python Study/Backup All the file/File copy list.xlsx
+++ b/Python Study/Backup All the file/File copy list.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>des</t>
+    <t>description</t>
   </si>
   <si>
     <t>src path</t>
@@ -34,34 +34,34 @@
     <t>copyall</t>
   </si>
   <si>
+    <t>Screen shot</t>
+  </si>
+  <si>
+    <t>E:\SIG\HMI\Screenshot</t>
+  </si>
+  <si>
     <t>IPA</t>
   </si>
   <si>
-    <t>D:\Software\HALCON17.12.0.0\halcon-17.12.0.0-windows.exe</t>
-  </si>
-  <si>
-    <t>D:\</t>
+    <t>E:\SIG\HMI\IPA</t>
   </si>
   <si>
     <t>Recipe</t>
   </si>
   <si>
-    <t>D:\Software\HALCON17.12.0.0</t>
-  </si>
-  <si>
-    <t>Screen shot</t>
-  </si>
-  <si>
-    <t>C:\Qt\qtcreator-4.9.2</t>
-  </si>
-  <si>
-    <t>Zenon Info</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>Customer data</t>
+    <t>E:\SIG\HMI\Exported_CEL_Recipes</t>
+  </si>
+  <si>
+    <t>ZenonInfo</t>
+  </si>
+  <si>
+    <t>E:\SIG\HMI\CustomerData</t>
+  </si>
+  <si>
+    <t>History Exception</t>
+  </si>
+  <si>
+    <t>E:\SIG\HMI\$COMPUTERNAME$</t>
   </si>
 </sst>
 </file>
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,53 +83,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,16 +163,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,8 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,14 +224,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,37 +236,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,145 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,6 +456,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,26 +508,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,49 +527,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,18 +999,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.14166666666667" style="1"/>
-    <col min="2" max="2" width="17.2833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.5" customWidth="1"/>
     <col min="4" max="4" width="19.2833333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1043,14 +1044,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
         <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1058,16 +1056,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1078,19 +1073,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1098,19 +1090,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1121,36 +1110,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Python Study/Backup All the file/File copy list.xlsx
+++ b/Python Study/Backup All the file/File copy list.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="10725"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>index</t>
   </si>
@@ -31,10 +32,22 @@
     <t>ebable</t>
   </si>
   <si>
+    <t>copynumber</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Screen shot</t>
+  </si>
+  <si>
+    <t>D:\WWC</t>
+  </si>
+  <si>
+    <t>D:\BaiduNetdiskDownload</t>
+  </si>
+  <si>
     <t>copyall</t>
-  </si>
-  <si>
-    <t>Screen shot</t>
   </si>
   <si>
     <t>E:\SIG\HMI\Screenshot</t>
@@ -91,6 +104,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -113,7 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,21 +157,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,72 +201,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,55 +249,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,127 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,41 +443,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,17 +482,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,16 +525,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,31 +558,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,100 +594,97 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,13 +1012,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.14166666666667" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
@@ -1014,7 +1027,7 @@
     <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,89 +1046,47 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
+      <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1123,4 +1094,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Python Study/Backup All the file/File copy list.xlsx
+++ b/Python Study/Backup All the file/File copy list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>index</t>
   </si>
@@ -41,40 +41,40 @@
     <t>Screen shot</t>
   </si>
   <si>
-    <t>D:\WWC</t>
-  </si>
-  <si>
-    <t>D:\BaiduNetdiskDownload</t>
+    <t>E:\SIG\HMI\Screenshot</t>
+  </si>
+  <si>
+    <t>F:\Backup</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>E:\SIG\HMI\IPA</t>
+  </si>
+  <si>
+    <t>Recipe</t>
+  </si>
+  <si>
+    <t>E:\SIG\HMI\Exported_CEL_Recipes</t>
+  </si>
+  <si>
+    <t>ZenonInfo</t>
+  </si>
+  <si>
+    <t>E:\SIG\HMI\CustomerData</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>E:\SIG\HMI\$COMPUTERNAME$</t>
   </si>
   <si>
     <t>copyall</t>
   </si>
   <si>
-    <t>E:\SIG\HMI\Screenshot</t>
-  </si>
-  <si>
-    <t>IPA</t>
-  </si>
-  <si>
-    <t>E:\SIG\HMI\IPA</t>
-  </si>
-  <si>
-    <t>Recipe</t>
-  </si>
-  <si>
-    <t>E:\SIG\HMI\Exported_CEL_Recipes</t>
-  </si>
-  <si>
-    <t>ZenonInfo</t>
-  </si>
-  <si>
-    <t>E:\SIG\HMI\CustomerData</t>
-  </si>
-  <si>
     <t>History Exception</t>
-  </si>
-  <si>
-    <t>E:\SIG\HMI\$COMPUTERNAME$</t>
   </si>
 </sst>
 </file>
@@ -82,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,22 +97,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,14 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,14 +210,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,84 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +440,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,6 +469,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,34 +516,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,166 +540,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,19 +1012,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.14166666666667" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.5" customWidth="1"/>
     <col min="4" max="4" width="19.2833333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1060,11 +1060,14 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1075,18 +1078,90 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="G3" t="b">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1102,7 +1177,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1124,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1138,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1155,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1175,10 +1250,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1195,10 +1270,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1215,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>

--- a/Python Study/Backup All the file/File copy list.xlsx
+++ b/Python Study/Backup All the file/File copy list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="18300" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>index</t>
   </si>
@@ -35,18 +35,30 @@
     <t>copynumber</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>time(days)</t>
+  </si>
+  <si>
+    <t>Screen shot</t>
+  </si>
+  <si>
+    <t>D:\WWC</t>
+  </si>
+  <si>
+    <t>D:\Backup</t>
+  </si>
+  <si>
+    <t>copyall</t>
+  </si>
+  <si>
     <t>Zip</t>
   </si>
   <si>
-    <t>Screen shot</t>
-  </si>
-  <si>
     <t>E:\SIG\HMI\Screenshot</t>
   </si>
   <si>
-    <t>F:\Backup</t>
-  </si>
-  <si>
     <t>IPA</t>
   </si>
   <si>
@@ -65,16 +77,10 @@
     <t>E:\SIG\HMI\CustomerData</t>
   </si>
   <si>
-    <t>History</t>
+    <t>History Exception</t>
   </si>
   <si>
     <t>E:\SIG\HMI\$COMPUTERNAME$</t>
-  </si>
-  <si>
-    <t>copyall</t>
-  </si>
-  <si>
-    <t>History Exception</t>
   </si>
 </sst>
 </file>
@@ -82,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,6 +103,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -105,7 +118,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +148,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,7 +163,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,9 +178,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,13 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -179,15 +215,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,45 +245,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,13 +255,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +375,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,145 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +446,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,17 +479,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -514,42 +546,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,22 +1018,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.14166666666667" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.5" customWidth="1"/>
     <col min="4" max="4" width="19.2833333333333" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,120 +1057,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
+      <c r="H2">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1099,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1199,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1210,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1230,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1250,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1270,10 +1192,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1290,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>

--- a/Python Study/Backup All the file/File copy list.xlsx
+++ b/Python Study/Backup All the file/File copy list.xlsx
@@ -47,7 +47,7 @@
     <t>D:\WWC</t>
   </si>
   <si>
-    <t>D:\Backup</t>
+    <t>D:\Backup\Screenshot</t>
   </si>
   <si>
     <t>copyall</t>
@@ -88,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,8 +117,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -141,44 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,16 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,32 +218,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -255,187 +255,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +446,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,21 +533,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -493,204 +546,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,15 +1020,15 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.14166666666667" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
     <col min="4" max="4" width="19.2833333333333" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
@@ -1078,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>360</v>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
